--- a/附件1.xlsx
+++ b/附件1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\flas\source\course\modelling\agristrat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC38ECBD-EDEA-440E-841F-BCDECFB59B6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{372F0C0E-39CC-47BC-ADF2-E6787E0DB9C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="734" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,6 +25,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">crop_dummied_touched!$A$1:$N$42</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -2484,6 +2485,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2504,24 +2523,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2905,7 +2906,7 @@
       <c r="C2" s="2">
         <v>80</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="28" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2919,7 +2920,7 @@
       <c r="C3" s="2">
         <v>55</v>
       </c>
-      <c r="D3" s="23"/>
+      <c r="D3" s="29"/>
     </row>
     <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -2931,7 +2932,7 @@
       <c r="C4" s="2">
         <v>35</v>
       </c>
-      <c r="D4" s="23"/>
+      <c r="D4" s="29"/>
     </row>
     <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -2943,7 +2944,7 @@
       <c r="C5" s="2">
         <v>72</v>
       </c>
-      <c r="D5" s="23"/>
+      <c r="D5" s="29"/>
     </row>
     <row r="6" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -2955,7 +2956,7 @@
       <c r="C6" s="3">
         <v>68</v>
       </c>
-      <c r="D6" s="23"/>
+      <c r="D6" s="29"/>
     </row>
     <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -2967,7 +2968,7 @@
       <c r="C7" s="2">
         <v>55</v>
       </c>
-      <c r="D7" s="23"/>
+      <c r="D7" s="29"/>
     </row>
     <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -2979,7 +2980,7 @@
       <c r="C8" s="2">
         <v>60</v>
       </c>
-      <c r="D8" s="23"/>
+      <c r="D8" s="29"/>
     </row>
     <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -2991,7 +2992,7 @@
       <c r="C9" s="2">
         <v>46</v>
       </c>
-      <c r="D9" s="23"/>
+      <c r="D9" s="29"/>
     </row>
     <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -3003,7 +3004,7 @@
       <c r="C10" s="2">
         <v>40</v>
       </c>
-      <c r="D10" s="23"/>
+      <c r="D10" s="29"/>
     </row>
     <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
@@ -3015,7 +3016,7 @@
       <c r="C11" s="2">
         <v>28</v>
       </c>
-      <c r="D11" s="23"/>
+      <c r="D11" s="29"/>
     </row>
     <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
@@ -3027,7 +3028,7 @@
       <c r="C12" s="2">
         <v>25</v>
       </c>
-      <c r="D12" s="23"/>
+      <c r="D12" s="29"/>
     </row>
     <row r="13" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
@@ -3039,7 +3040,7 @@
       <c r="C13" s="2">
         <v>86</v>
       </c>
-      <c r="D13" s="23"/>
+      <c r="D13" s="29"/>
     </row>
     <row r="14" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
@@ -3051,7 +3052,7 @@
       <c r="C14" s="2">
         <v>55</v>
       </c>
-      <c r="D14" s="23"/>
+      <c r="D14" s="29"/>
     </row>
     <row r="15" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
@@ -3063,7 +3064,7 @@
       <c r="C15" s="2">
         <v>44</v>
       </c>
-      <c r="D15" s="23"/>
+      <c r="D15" s="29"/>
     </row>
     <row r="16" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
@@ -3075,7 +3076,7 @@
       <c r="C16" s="2">
         <v>50</v>
       </c>
-      <c r="D16" s="23"/>
+      <c r="D16" s="29"/>
     </row>
     <row r="17" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
@@ -3087,7 +3088,7 @@
       <c r="C17" s="2">
         <v>25</v>
       </c>
-      <c r="D17" s="23"/>
+      <c r="D17" s="29"/>
     </row>
     <row r="18" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
@@ -3099,7 +3100,7 @@
       <c r="C18" s="2">
         <v>60</v>
       </c>
-      <c r="D18" s="23"/>
+      <c r="D18" s="29"/>
     </row>
     <row r="19" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
@@ -3111,7 +3112,7 @@
       <c r="C19" s="2">
         <v>45</v>
       </c>
-      <c r="D19" s="23"/>
+      <c r="D19" s="29"/>
     </row>
     <row r="20" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
@@ -3123,7 +3124,7 @@
       <c r="C20" s="2">
         <v>35</v>
       </c>
-      <c r="D20" s="23"/>
+      <c r="D20" s="29"/>
     </row>
     <row r="21" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
@@ -3135,7 +3136,7 @@
       <c r="C21" s="2">
         <v>20</v>
       </c>
-      <c r="D21" s="23"/>
+      <c r="D21" s="29"/>
     </row>
     <row r="22" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
@@ -3147,7 +3148,7 @@
       <c r="C22" s="2">
         <v>15</v>
       </c>
-      <c r="D22" s="23"/>
+      <c r="D22" s="29"/>
     </row>
     <row r="23" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
@@ -3159,7 +3160,7 @@
       <c r="C23" s="2">
         <v>13</v>
       </c>
-      <c r="D23" s="23"/>
+      <c r="D23" s="29"/>
     </row>
     <row r="24" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
@@ -3171,7 +3172,7 @@
       <c r="C24" s="2">
         <v>15</v>
       </c>
-      <c r="D24" s="23"/>
+      <c r="D24" s="29"/>
     </row>
     <row r="25" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
@@ -3183,7 +3184,7 @@
       <c r="C25" s="2">
         <v>18</v>
       </c>
-      <c r="D25" s="23"/>
+      <c r="D25" s="29"/>
     </row>
     <row r="26" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
@@ -3195,7 +3196,7 @@
       <c r="C26" s="2">
         <v>27</v>
       </c>
-      <c r="D26" s="23"/>
+      <c r="D26" s="29"/>
     </row>
     <row r="27" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
@@ -3207,7 +3208,7 @@
       <c r="C27" s="2">
         <v>20</v>
       </c>
-      <c r="D27" s="23"/>
+      <c r="D27" s="29"/>
     </row>
     <row r="28" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
@@ -3219,7 +3220,7 @@
       <c r="C28" s="2">
         <v>15</v>
       </c>
-      <c r="D28" s="23"/>
+      <c r="D28" s="29"/>
     </row>
     <row r="29" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
@@ -3231,7 +3232,7 @@
       <c r="C29" s="2">
         <v>10</v>
       </c>
-      <c r="D29" s="23"/>
+      <c r="D29" s="29"/>
     </row>
     <row r="30" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
@@ -3243,7 +3244,7 @@
       <c r="C30" s="2">
         <v>14</v>
       </c>
-      <c r="D30" s="23"/>
+      <c r="D30" s="29"/>
     </row>
     <row r="31" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
@@ -3255,7 +3256,7 @@
       <c r="C31" s="2">
         <v>6</v>
       </c>
-      <c r="D31" s="23"/>
+      <c r="D31" s="29"/>
     </row>
     <row r="32" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
@@ -3267,7 +3268,7 @@
       <c r="C32" s="2">
         <v>10</v>
       </c>
-      <c r="D32" s="23"/>
+      <c r="D32" s="29"/>
     </row>
     <row r="33" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
@@ -3279,7 +3280,7 @@
       <c r="C33" s="2">
         <v>12</v>
       </c>
-      <c r="D33" s="23"/>
+      <c r="D33" s="29"/>
     </row>
     <row r="34" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
@@ -3291,7 +3292,7 @@
       <c r="C34" s="2">
         <v>22</v>
       </c>
-      <c r="D34" s="23"/>
+      <c r="D34" s="29"/>
     </row>
     <row r="35" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
@@ -3303,7 +3304,7 @@
       <c r="C35" s="2">
         <v>20</v>
       </c>
-      <c r="D35" s="23"/>
+      <c r="D35" s="29"/>
     </row>
     <row r="36" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
@@ -3315,7 +3316,7 @@
       <c r="C36" s="2">
         <v>0.6</v>
       </c>
-      <c r="D36" s="23"/>
+      <c r="D36" s="29"/>
     </row>
     <row r="37" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
@@ -3327,7 +3328,7 @@
       <c r="C37" s="2">
         <v>0.6</v>
       </c>
-      <c r="D37" s="23"/>
+      <c r="D37" s="29"/>
     </row>
     <row r="38" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
@@ -3339,7 +3340,7 @@
       <c r="C38" s="2">
         <v>0.6</v>
       </c>
-      <c r="D38" s="23"/>
+      <c r="D38" s="29"/>
     </row>
     <row r="39" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
@@ -3351,7 +3352,7 @@
       <c r="C39" s="2">
         <v>0.6</v>
       </c>
-      <c r="D39" s="23"/>
+      <c r="D39" s="29"/>
     </row>
     <row r="40" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
@@ -3363,7 +3364,7 @@
       <c r="C40" s="2">
         <v>0.6</v>
       </c>
-      <c r="D40" s="23"/>
+      <c r="D40" s="29"/>
     </row>
     <row r="41" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
@@ -3375,7 +3376,7 @@
       <c r="C41" s="2">
         <v>0.6</v>
       </c>
-      <c r="D41" s="23"/>
+      <c r="D41" s="29"/>
     </row>
     <row r="42" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
@@ -3387,7 +3388,7 @@
       <c r="C42" s="2">
         <v>0.6</v>
       </c>
-      <c r="D42" s="23"/>
+      <c r="D42" s="29"/>
     </row>
     <row r="43" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
@@ -3399,7 +3400,7 @@
       <c r="C43" s="2">
         <v>0.6</v>
       </c>
-      <c r="D43" s="23"/>
+      <c r="D43" s="29"/>
     </row>
     <row r="44" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
@@ -3411,7 +3412,7 @@
       <c r="C44" s="2">
         <v>0.6</v>
       </c>
-      <c r="D44" s="23"/>
+      <c r="D44" s="29"/>
     </row>
     <row r="45" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
@@ -3423,7 +3424,7 @@
       <c r="C45" s="2">
         <v>0.6</v>
       </c>
-      <c r="D45" s="23"/>
+      <c r="D45" s="29"/>
     </row>
     <row r="46" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
@@ -3435,7 +3436,7 @@
       <c r="C46" s="2">
         <v>0.6</v>
       </c>
-      <c r="D46" s="23"/>
+      <c r="D46" s="29"/>
     </row>
     <row r="47" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
@@ -3447,7 +3448,7 @@
       <c r="C47" s="2">
         <v>0.6</v>
       </c>
-      <c r="D47" s="23"/>
+      <c r="D47" s="29"/>
     </row>
     <row r="48" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
@@ -3459,7 +3460,7 @@
       <c r="C48" s="2">
         <v>0.6</v>
       </c>
-      <c r="D48" s="23"/>
+      <c r="D48" s="29"/>
     </row>
     <row r="49" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
@@ -3471,7 +3472,7 @@
       <c r="C49" s="2">
         <v>0.6</v>
       </c>
-      <c r="D49" s="23"/>
+      <c r="D49" s="29"/>
     </row>
     <row r="50" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
@@ -3483,7 +3484,7 @@
       <c r="C50" s="2">
         <v>0.6</v>
       </c>
-      <c r="D50" s="23"/>
+      <c r="D50" s="29"/>
     </row>
     <row r="51" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
@@ -3495,7 +3496,7 @@
       <c r="C51" s="2">
         <v>0.6</v>
       </c>
-      <c r="D51" s="23"/>
+      <c r="D51" s="29"/>
     </row>
     <row r="52" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
@@ -3507,7 +3508,7 @@
       <c r="C52" s="2">
         <v>0.6</v>
       </c>
-      <c r="D52" s="23"/>
+      <c r="D52" s="29"/>
     </row>
     <row r="53" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
@@ -3519,7 +3520,7 @@
       <c r="C53" s="2">
         <v>0.6</v>
       </c>
-      <c r="D53" s="23"/>
+      <c r="D53" s="29"/>
     </row>
     <row r="54" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
@@ -3531,7 +3532,7 @@
       <c r="C54" s="2">
         <v>0.6</v>
       </c>
-      <c r="D54" s="23"/>
+      <c r="D54" s="29"/>
     </row>
     <row r="55" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
@@ -3543,7 +3544,7 @@
       <c r="C55" s="2">
         <v>0.6</v>
       </c>
-      <c r="D55" s="24"/>
+      <c r="D55" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3603,10 +3604,10 @@
       <c r="C2" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="33" t="s">
         <v>126</v>
       </c>
     </row>
@@ -3620,8 +3621,8 @@
       <c r="C3" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="D3" s="25"/>
-      <c r="E3" s="28"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="34"/>
     </row>
     <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
@@ -3633,8 +3634,8 @@
       <c r="C4" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="D4" s="25"/>
-      <c r="E4" s="28"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="34"/>
     </row>
     <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
@@ -3646,8 +3647,8 @@
       <c r="C5" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="D5" s="25"/>
-      <c r="E5" s="28"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="34"/>
     </row>
     <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
@@ -3659,8 +3660,8 @@
       <c r="C6" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="D6" s="25"/>
-      <c r="E6" s="28"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="34"/>
     </row>
     <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
@@ -3672,8 +3673,8 @@
       <c r="C7" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="D7" s="25"/>
-      <c r="E7" s="28"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="34"/>
     </row>
     <row r="8" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
@@ -3685,8 +3686,8 @@
       <c r="C8" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="D8" s="25"/>
-      <c r="E8" s="28"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="34"/>
     </row>
     <row r="9" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
@@ -3698,8 +3699,8 @@
       <c r="C9" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="D9" s="25"/>
-      <c r="E9" s="28"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="34"/>
     </row>
     <row r="10" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
@@ -3711,8 +3712,8 @@
       <c r="C10" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="D10" s="25"/>
-      <c r="E10" s="28"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="34"/>
     </row>
     <row r="11" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
@@ -3724,8 +3725,8 @@
       <c r="C11" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="D11" s="25"/>
-      <c r="E11" s="28"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="34"/>
     </row>
     <row r="12" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
@@ -3737,8 +3738,8 @@
       <c r="C12" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="D12" s="25"/>
-      <c r="E12" s="28"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="34"/>
     </row>
     <row r="13" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
@@ -3750,8 +3751,8 @@
       <c r="C13" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="D13" s="25"/>
-      <c r="E13" s="28"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="34"/>
     </row>
     <row r="14" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
@@ -3763,8 +3764,8 @@
       <c r="C14" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="D14" s="25"/>
-      <c r="E14" s="28"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="34"/>
     </row>
     <row r="15" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
@@ -3776,8 +3777,8 @@
       <c r="C15" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="D15" s="25"/>
-      <c r="E15" s="28"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="34"/>
     </row>
     <row r="16" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
@@ -3789,8 +3790,8 @@
       <c r="C16" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="D16" s="25"/>
-      <c r="E16" s="28"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="34"/>
     </row>
     <row r="17" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
@@ -3805,7 +3806,7 @@
       <c r="D17" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="E17" s="28"/>
+      <c r="E17" s="34"/>
     </row>
     <row r="18" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
@@ -3817,10 +3818,10 @@
       <c r="C18" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="D18" s="25" t="s">
+      <c r="D18" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="E18" s="28"/>
+      <c r="E18" s="34"/>
     </row>
     <row r="19" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
@@ -3832,8 +3833,8 @@
       <c r="C19" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="D19" s="26"/>
-      <c r="E19" s="28"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="34"/>
     </row>
     <row r="20" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
@@ -3845,8 +3846,8 @@
       <c r="C20" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="D20" s="26"/>
-      <c r="E20" s="28"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="34"/>
     </row>
     <row r="21" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
@@ -3858,8 +3859,8 @@
       <c r="C21" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="D21" s="26"/>
-      <c r="E21" s="28"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="34"/>
     </row>
     <row r="22" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
@@ -3871,8 +3872,8 @@
       <c r="C22" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="D22" s="26"/>
-      <c r="E22" s="28"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="34"/>
     </row>
     <row r="23" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
@@ -3884,8 +3885,8 @@
       <c r="C23" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="D23" s="26"/>
-      <c r="E23" s="28"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="34"/>
     </row>
     <row r="24" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
@@ -3897,8 +3898,8 @@
       <c r="C24" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="D24" s="26"/>
-      <c r="E24" s="28"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="34"/>
     </row>
     <row r="25" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
@@ -3910,8 +3911,8 @@
       <c r="C25" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="D25" s="26"/>
-      <c r="E25" s="28"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="34"/>
     </row>
     <row r="26" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
@@ -3923,8 +3924,8 @@
       <c r="C26" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="D26" s="26"/>
-      <c r="E26" s="28"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="34"/>
     </row>
     <row r="27" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
@@ -3936,8 +3937,8 @@
       <c r="C27" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="D27" s="26"/>
-      <c r="E27" s="28"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="34"/>
     </row>
     <row r="28" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
@@ -3949,8 +3950,8 @@
       <c r="C28" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="D28" s="26"/>
-      <c r="E28" s="28"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="34"/>
     </row>
     <row r="29" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
@@ -3962,8 +3963,8 @@
       <c r="C29" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="D29" s="26"/>
-      <c r="E29" s="28"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="34"/>
     </row>
     <row r="30" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
@@ -3975,8 +3976,8 @@
       <c r="C30" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="D30" s="26"/>
-      <c r="E30" s="28"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="34"/>
     </row>
     <row r="31" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
@@ -3988,8 +3989,8 @@
       <c r="C31" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="D31" s="26"/>
-      <c r="E31" s="28"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="34"/>
     </row>
     <row r="32" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
@@ -4001,8 +4002,8 @@
       <c r="C32" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="D32" s="26"/>
-      <c r="E32" s="28"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="34"/>
     </row>
     <row r="33" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
@@ -4014,8 +4015,8 @@
       <c r="C33" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="D33" s="26"/>
-      <c r="E33" s="28"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="34"/>
     </row>
     <row r="34" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
@@ -4027,8 +4028,8 @@
       <c r="C34" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="D34" s="26"/>
-      <c r="E34" s="28"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="34"/>
     </row>
     <row r="35" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
@@ -4040,8 +4041,8 @@
       <c r="C35" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="D35" s="26"/>
-      <c r="E35" s="28"/>
+      <c r="D35" s="32"/>
+      <c r="E35" s="34"/>
     </row>
     <row r="36" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
@@ -4053,10 +4054,10 @@
       <c r="C36" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="D36" s="25" t="s">
+      <c r="D36" s="31" t="s">
         <v>114</v>
       </c>
-      <c r="E36" s="28"/>
+      <c r="E36" s="34"/>
     </row>
     <row r="37" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
@@ -4068,8 +4069,8 @@
       <c r="C37" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="D37" s="25"/>
-      <c r="E37" s="28"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="34"/>
     </row>
     <row r="38" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
@@ -4081,8 +4082,8 @@
       <c r="C38" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="D38" s="25"/>
-      <c r="E38" s="28"/>
+      <c r="D38" s="31"/>
+      <c r="E38" s="34"/>
     </row>
     <row r="39" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
@@ -4094,10 +4095,10 @@
       <c r="C39" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="D39" s="25" t="s">
+      <c r="D39" s="31" t="s">
         <v>119</v>
       </c>
-      <c r="E39" s="28"/>
+      <c r="E39" s="34"/>
     </row>
     <row r="40" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
@@ -4109,8 +4110,8 @@
       <c r="C40" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="D40" s="25"/>
-      <c r="E40" s="28"/>
+      <c r="D40" s="31"/>
+      <c r="E40" s="34"/>
     </row>
     <row r="41" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
@@ -4122,8 +4123,8 @@
       <c r="C41" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="D41" s="25"/>
-      <c r="E41" s="28"/>
+      <c r="D41" s="31"/>
+      <c r="E41" s="34"/>
     </row>
     <row r="42" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
@@ -4135,8 +4136,8 @@
       <c r="C42" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="D42" s="25"/>
-      <c r="E42" s="28"/>
+      <c r="D42" s="31"/>
+      <c r="E42" s="34"/>
     </row>
     <row r="43" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A43" s="11"/>
@@ -7203,2222 +7204,2222 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="str">
+      <c r="A1" s="26" t="str">
         <f>crop_dummied!A1</f>
         <v>id</v>
       </c>
-      <c r="B1" s="33" t="str">
+      <c r="B1" s="26" t="str">
         <f>crop_dummied!B1</f>
         <v>作物名称</v>
       </c>
-      <c r="C1" s="33" t="str">
+      <c r="C1" s="26" t="str">
         <f>crop_dummied!C1</f>
         <v>平旱地-单季</v>
       </c>
-      <c r="D1" s="33" t="str">
+      <c r="D1" s="26" t="str">
         <f>crop_dummied!D1</f>
         <v>梯田-单季</v>
       </c>
-      <c r="E1" s="33" t="str">
+      <c r="E1" s="26" t="str">
         <f>crop_dummied!E1</f>
         <v>山坡地-单季</v>
       </c>
-      <c r="F1" s="33" t="str">
+      <c r="F1" s="26" t="str">
         <f>crop_dummied!F1</f>
         <v>水浇地-单季</v>
       </c>
-      <c r="G1" s="33" t="str">
+      <c r="G1" s="26" t="str">
         <f>crop_dummied!G1</f>
         <v>水浇地-第一季</v>
       </c>
-      <c r="H1" s="33" t="str">
+      <c r="H1" s="26" t="str">
         <f>crop_dummied!H1</f>
         <v>水浇地-第二季</v>
       </c>
-      <c r="I1" s="33" t="str">
+      <c r="I1" s="26" t="str">
         <f>crop_dummied!I1</f>
         <v>普通大棚-第一季</v>
       </c>
-      <c r="J1" s="33" t="str">
+      <c r="J1" s="26" t="str">
         <f>crop_dummied!J1</f>
         <v>普通大棚-第二季</v>
       </c>
-      <c r="K1" s="33" t="str">
+      <c r="K1" s="26" t="str">
         <f>crop_dummied!K1</f>
         <v>智慧大棚-第一季</v>
       </c>
-      <c r="L1" s="33" t="str">
+      <c r="L1" s="26" t="str">
         <f>crop_dummied!L1</f>
         <v>智慧大棚-第二季</v>
       </c>
-      <c r="M1" s="29" t="s">
+      <c r="M1" s="22" t="s">
         <v>181</v>
       </c>
-      <c r="N1" s="29" t="s">
+      <c r="N1" s="22" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="34">
+      <c r="A2" s="27">
         <f>crop_dummied!A2</f>
         <v>0</v>
       </c>
-      <c r="B2" s="34" t="str">
+      <c r="B2" s="27" t="str">
         <f>crop_dummied!B2</f>
         <v>黄豆</v>
       </c>
-      <c r="C2" s="34">
+      <c r="C2" s="27">
         <f>crop_dummied!C2</f>
         <v>1</v>
       </c>
-      <c r="D2" s="34">
+      <c r="D2" s="27">
         <f>crop_dummied!D2</f>
         <v>1</v>
       </c>
-      <c r="E2" s="34">
+      <c r="E2" s="27">
         <f>crop_dummied!E2</f>
         <v>1</v>
       </c>
-      <c r="F2" s="34">
+      <c r="F2" s="27">
         <f>crop_dummied!F2</f>
         <v>0</v>
       </c>
-      <c r="G2" s="34">
+      <c r="G2" s="27">
         <f>crop_dummied!G2</f>
         <v>0</v>
       </c>
-      <c r="H2" s="34">
+      <c r="H2" s="27">
         <f>crop_dummied!H2</f>
         <v>0</v>
       </c>
-      <c r="I2" s="34">
+      <c r="I2" s="27">
         <f>crop_dummied!I2</f>
         <v>0</v>
       </c>
-      <c r="J2" s="34">
+      <c r="J2" s="27">
         <f>crop_dummied!J2</f>
         <v>0</v>
       </c>
-      <c r="K2" s="34">
+      <c r="K2" s="27">
         <f>crop_dummied!K2</f>
         <v>0</v>
       </c>
-      <c r="L2" s="34">
+      <c r="L2" s="27">
         <f>crop_dummied!L2</f>
         <v>0</v>
       </c>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="31">
+      <c r="A3" s="24">
         <f>crop_dummied!A3</f>
         <v>1</v>
       </c>
-      <c r="B3" s="31" t="str">
+      <c r="B3" s="24" t="str">
         <f>crop_dummied!B3</f>
         <v>黑豆</v>
       </c>
-      <c r="C3" s="31">
+      <c r="C3" s="24">
         <f>crop_dummied!C3</f>
         <v>1</v>
       </c>
-      <c r="D3" s="31">
+      <c r="D3" s="24">
         <f>crop_dummied!D3</f>
         <v>1</v>
       </c>
-      <c r="E3" s="31">
+      <c r="E3" s="24">
         <f>crop_dummied!E3</f>
         <v>1</v>
       </c>
-      <c r="F3" s="31">
+      <c r="F3" s="24">
         <f>crop_dummied!F3</f>
         <v>0</v>
       </c>
-      <c r="G3" s="31">
+      <c r="G3" s="24">
         <f>crop_dummied!G3</f>
         <v>0</v>
       </c>
-      <c r="H3" s="31">
+      <c r="H3" s="24">
         <f>crop_dummied!H3</f>
         <v>0</v>
       </c>
-      <c r="I3" s="31">
+      <c r="I3" s="24">
         <f>crop_dummied!I3</f>
         <v>0</v>
       </c>
-      <c r="J3" s="31">
+      <c r="J3" s="24">
         <f>crop_dummied!J3</f>
         <v>0</v>
       </c>
-      <c r="K3" s="31">
+      <c r="K3" s="24">
         <f>crop_dummied!K3</f>
         <v>0</v>
       </c>
-      <c r="L3" s="31">
+      <c r="L3" s="24">
         <f>crop_dummied!L3</f>
         <v>0</v>
       </c>
-      <c r="M3" s="31"/>
-      <c r="N3" s="31"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="30">
+      <c r="A4" s="23">
         <f>crop_dummied!A4</f>
         <v>2</v>
       </c>
-      <c r="B4" s="30" t="str">
+      <c r="B4" s="23" t="str">
         <f>crop_dummied!B4</f>
         <v>红豆</v>
       </c>
-      <c r="C4" s="30">
+      <c r="C4" s="23">
         <f>crop_dummied!C4</f>
         <v>1</v>
       </c>
-      <c r="D4" s="30">
+      <c r="D4" s="23">
         <f>crop_dummied!D4</f>
         <v>1</v>
       </c>
-      <c r="E4" s="30">
+      <c r="E4" s="23">
         <f>crop_dummied!E4</f>
         <v>1</v>
       </c>
-      <c r="F4" s="30">
+      <c r="F4" s="23">
         <f>crop_dummied!F4</f>
         <v>0</v>
       </c>
-      <c r="G4" s="30">
+      <c r="G4" s="23">
         <f>crop_dummied!G4</f>
         <v>0</v>
       </c>
-      <c r="H4" s="30">
+      <c r="H4" s="23">
         <f>crop_dummied!H4</f>
         <v>0</v>
       </c>
-      <c r="I4" s="30">
+      <c r="I4" s="23">
         <f>crop_dummied!I4</f>
         <v>0</v>
       </c>
-      <c r="J4" s="30">
+      <c r="J4" s="23">
         <f>crop_dummied!J4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="30">
+      <c r="K4" s="23">
         <f>crop_dummied!K4</f>
         <v>0</v>
       </c>
-      <c r="L4" s="30">
+      <c r="L4" s="23">
         <f>crop_dummied!L4</f>
         <v>0</v>
       </c>
-      <c r="M4" s="30"/>
-      <c r="N4" s="30"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="31">
+      <c r="A5" s="24">
         <f>crop_dummied!A5</f>
         <v>3</v>
       </c>
-      <c r="B5" s="31" t="str">
+      <c r="B5" s="24" t="str">
         <f>crop_dummied!B5</f>
         <v>绿豆</v>
       </c>
-      <c r="C5" s="31">
+      <c r="C5" s="24">
         <f>crop_dummied!C5</f>
         <v>1</v>
       </c>
-      <c r="D5" s="31">
+      <c r="D5" s="24">
         <f>crop_dummied!D5</f>
         <v>1</v>
       </c>
-      <c r="E5" s="31">
+      <c r="E5" s="24">
         <f>crop_dummied!E5</f>
         <v>1</v>
       </c>
-      <c r="F5" s="31">
+      <c r="F5" s="24">
         <f>crop_dummied!F5</f>
         <v>0</v>
       </c>
-      <c r="G5" s="31">
+      <c r="G5" s="24">
         <f>crop_dummied!G5</f>
         <v>0</v>
       </c>
-      <c r="H5" s="31">
+      <c r="H5" s="24">
         <f>crop_dummied!H5</f>
         <v>0</v>
       </c>
-      <c r="I5" s="31">
+      <c r="I5" s="24">
         <f>crop_dummied!I5</f>
         <v>0</v>
       </c>
-      <c r="J5" s="31">
+      <c r="J5" s="24">
         <f>crop_dummied!J5</f>
         <v>0</v>
       </c>
-      <c r="K5" s="31">
+      <c r="K5" s="24">
         <f>crop_dummied!K5</f>
         <v>0</v>
       </c>
-      <c r="L5" s="31">
+      <c r="L5" s="24">
         <f>crop_dummied!L5</f>
         <v>0</v>
       </c>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="30">
+      <c r="A6" s="23">
         <f>crop_dummied!A6</f>
         <v>4</v>
       </c>
-      <c r="B6" s="30" t="str">
+      <c r="B6" s="23" t="str">
         <f>crop_dummied!B6</f>
         <v>爬豆</v>
       </c>
-      <c r="C6" s="30">
+      <c r="C6" s="23">
         <f>crop_dummied!C6</f>
         <v>1</v>
       </c>
-      <c r="D6" s="30">
+      <c r="D6" s="23">
         <f>crop_dummied!D6</f>
         <v>1</v>
       </c>
-      <c r="E6" s="30">
+      <c r="E6" s="23">
         <f>crop_dummied!E6</f>
         <v>1</v>
       </c>
-      <c r="F6" s="30">
+      <c r="F6" s="23">
         <f>crop_dummied!F6</f>
         <v>0</v>
       </c>
-      <c r="G6" s="30">
+      <c r="G6" s="23">
         <f>crop_dummied!G6</f>
         <v>0</v>
       </c>
-      <c r="H6" s="30">
+      <c r="H6" s="23">
         <f>crop_dummied!H6</f>
         <v>0</v>
       </c>
-      <c r="I6" s="30">
+      <c r="I6" s="23">
         <f>crop_dummied!I6</f>
         <v>0</v>
       </c>
-      <c r="J6" s="30">
+      <c r="J6" s="23">
         <f>crop_dummied!J6</f>
         <v>0</v>
       </c>
-      <c r="K6" s="30">
+      <c r="K6" s="23">
         <f>crop_dummied!K6</f>
         <v>0</v>
       </c>
-      <c r="L6" s="30">
+      <c r="L6" s="23">
         <f>crop_dummied!L6</f>
         <v>0</v>
       </c>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="31">
+      <c r="A7" s="24">
         <f>crop_dummied!A7</f>
         <v>5</v>
       </c>
-      <c r="B7" s="31" t="str">
+      <c r="B7" s="24" t="str">
         <f>crop_dummied!B7</f>
         <v>小麦</v>
       </c>
-      <c r="C7" s="31">
+      <c r="C7" s="24">
         <f>crop_dummied!C7</f>
         <v>1</v>
       </c>
-      <c r="D7" s="31">
+      <c r="D7" s="24">
         <f>crop_dummied!D7</f>
         <v>1</v>
       </c>
-      <c r="E7" s="31">
+      <c r="E7" s="24">
         <f>crop_dummied!E7</f>
         <v>1</v>
       </c>
-      <c r="F7" s="31">
+      <c r="F7" s="24">
         <f>crop_dummied!F7</f>
         <v>0</v>
       </c>
-      <c r="G7" s="31">
+      <c r="G7" s="24">
         <f>crop_dummied!G7</f>
         <v>0</v>
       </c>
-      <c r="H7" s="31">
+      <c r="H7" s="24">
         <f>crop_dummied!H7</f>
         <v>0</v>
       </c>
-      <c r="I7" s="31">
+      <c r="I7" s="24">
         <f>crop_dummied!I7</f>
         <v>0</v>
       </c>
-      <c r="J7" s="31">
+      <c r="J7" s="24">
         <f>crop_dummied!J7</f>
         <v>0</v>
       </c>
-      <c r="K7" s="31">
+      <c r="K7" s="24">
         <f>crop_dummied!K7</f>
         <v>0</v>
       </c>
-      <c r="L7" s="31">
+      <c r="L7" s="24">
         <f>crop_dummied!L7</f>
         <v>0</v>
       </c>
-      <c r="M7" s="31"/>
-      <c r="N7" s="31"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="24"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="30">
+      <c r="A8" s="23">
         <f>crop_dummied!A8</f>
         <v>6</v>
       </c>
-      <c r="B8" s="30" t="str">
+      <c r="B8" s="23" t="str">
         <f>crop_dummied!B8</f>
         <v>玉米</v>
       </c>
-      <c r="C8" s="30">
+      <c r="C8" s="23">
         <f>crop_dummied!C8</f>
         <v>1</v>
       </c>
-      <c r="D8" s="30">
+      <c r="D8" s="23">
         <f>crop_dummied!D8</f>
         <v>1</v>
       </c>
-      <c r="E8" s="30">
+      <c r="E8" s="23">
         <f>crop_dummied!E8</f>
         <v>1</v>
       </c>
-      <c r="F8" s="30">
+      <c r="F8" s="23">
         <f>crop_dummied!F8</f>
         <v>0</v>
       </c>
-      <c r="G8" s="30">
+      <c r="G8" s="23">
         <f>crop_dummied!G8</f>
         <v>0</v>
       </c>
-      <c r="H8" s="30">
+      <c r="H8" s="23">
         <f>crop_dummied!H8</f>
         <v>0</v>
       </c>
-      <c r="I8" s="30">
+      <c r="I8" s="23">
         <f>crop_dummied!I8</f>
         <v>0</v>
       </c>
-      <c r="J8" s="30">
+      <c r="J8" s="23">
         <f>crop_dummied!J8</f>
         <v>0</v>
       </c>
-      <c r="K8" s="30">
+      <c r="K8" s="23">
         <f>crop_dummied!K8</f>
         <v>0</v>
       </c>
-      <c r="L8" s="30">
+      <c r="L8" s="23">
         <f>crop_dummied!L8</f>
         <v>0</v>
       </c>
-      <c r="M8" s="30"/>
-      <c r="N8" s="30"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="31">
+      <c r="A9" s="24">
         <f>crop_dummied!A9</f>
         <v>7</v>
       </c>
-      <c r="B9" s="31" t="str">
+      <c r="B9" s="24" t="str">
         <f>crop_dummied!B9</f>
         <v>谷子</v>
       </c>
-      <c r="C9" s="31">
+      <c r="C9" s="24">
         <f>crop_dummied!C9</f>
         <v>1</v>
       </c>
-      <c r="D9" s="31">
+      <c r="D9" s="24">
         <f>crop_dummied!D9</f>
         <v>1</v>
       </c>
-      <c r="E9" s="31">
+      <c r="E9" s="24">
         <f>crop_dummied!E9</f>
         <v>1</v>
       </c>
-      <c r="F9" s="31">
+      <c r="F9" s="24">
         <f>crop_dummied!F9</f>
         <v>0</v>
       </c>
-      <c r="G9" s="31">
+      <c r="G9" s="24">
         <f>crop_dummied!G9</f>
         <v>0</v>
       </c>
-      <c r="H9" s="31">
+      <c r="H9" s="24">
         <f>crop_dummied!H9</f>
         <v>0</v>
       </c>
-      <c r="I9" s="31">
+      <c r="I9" s="24">
         <f>crop_dummied!I9</f>
         <v>0</v>
       </c>
-      <c r="J9" s="31">
+      <c r="J9" s="24">
         <f>crop_dummied!J9</f>
         <v>0</v>
       </c>
-      <c r="K9" s="31">
+      <c r="K9" s="24">
         <f>crop_dummied!K9</f>
         <v>0</v>
       </c>
-      <c r="L9" s="31">
+      <c r="L9" s="24">
         <f>crop_dummied!L9</f>
         <v>0</v>
       </c>
-      <c r="M9" s="31"/>
-      <c r="N9" s="31"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="24"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="30">
+      <c r="A10" s="23">
         <f>crop_dummied!A10</f>
         <v>8</v>
       </c>
-      <c r="B10" s="30" t="str">
+      <c r="B10" s="23" t="str">
         <f>crop_dummied!B10</f>
         <v>高粱</v>
       </c>
-      <c r="C10" s="30">
+      <c r="C10" s="23">
         <f>crop_dummied!C10</f>
         <v>1</v>
       </c>
-      <c r="D10" s="30">
+      <c r="D10" s="23">
         <f>crop_dummied!D10</f>
         <v>1</v>
       </c>
-      <c r="E10" s="30">
+      <c r="E10" s="23">
         <f>crop_dummied!E10</f>
         <v>1</v>
       </c>
-      <c r="F10" s="30">
+      <c r="F10" s="23">
         <f>crop_dummied!F10</f>
         <v>0</v>
       </c>
-      <c r="G10" s="30">
+      <c r="G10" s="23">
         <f>crop_dummied!G10</f>
         <v>0</v>
       </c>
-      <c r="H10" s="30">
+      <c r="H10" s="23">
         <f>crop_dummied!H10</f>
         <v>0</v>
       </c>
-      <c r="I10" s="30">
+      <c r="I10" s="23">
         <f>crop_dummied!I10</f>
         <v>0</v>
       </c>
-      <c r="J10" s="30">
+      <c r="J10" s="23">
         <f>crop_dummied!J10</f>
         <v>0</v>
       </c>
-      <c r="K10" s="30">
+      <c r="K10" s="23">
         <f>crop_dummied!K10</f>
         <v>0</v>
       </c>
-      <c r="L10" s="30">
+      <c r="L10" s="23">
         <f>crop_dummied!L10</f>
         <v>0</v>
       </c>
-      <c r="M10" s="30"/>
-      <c r="N10" s="30"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="31">
+      <c r="A11" s="24">
         <f>crop_dummied!A11</f>
         <v>9</v>
       </c>
-      <c r="B11" s="31" t="str">
+      <c r="B11" s="24" t="str">
         <f>crop_dummied!B11</f>
         <v>黍子</v>
       </c>
-      <c r="C11" s="31">
+      <c r="C11" s="24">
         <f>crop_dummied!C11</f>
         <v>1</v>
       </c>
-      <c r="D11" s="31">
+      <c r="D11" s="24">
         <f>crop_dummied!D11</f>
         <v>1</v>
       </c>
-      <c r="E11" s="31">
+      <c r="E11" s="24">
         <f>crop_dummied!E11</f>
         <v>1</v>
       </c>
-      <c r="F11" s="31">
+      <c r="F11" s="24">
         <f>crop_dummied!F11</f>
         <v>0</v>
       </c>
-      <c r="G11" s="31">
+      <c r="G11" s="24">
         <f>crop_dummied!G11</f>
         <v>0</v>
       </c>
-      <c r="H11" s="31">
+      <c r="H11" s="24">
         <f>crop_dummied!H11</f>
         <v>0</v>
       </c>
-      <c r="I11" s="31">
+      <c r="I11" s="24">
         <f>crop_dummied!I11</f>
         <v>0</v>
       </c>
-      <c r="J11" s="31">
+      <c r="J11" s="24">
         <f>crop_dummied!J11</f>
         <v>0</v>
       </c>
-      <c r="K11" s="31">
+      <c r="K11" s="24">
         <f>crop_dummied!K11</f>
         <v>0</v>
       </c>
-      <c r="L11" s="31">
+      <c r="L11" s="24">
         <f>crop_dummied!L11</f>
         <v>0</v>
       </c>
-      <c r="M11" s="31"/>
-      <c r="N11" s="31"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="30">
+      <c r="A12" s="23">
         <f>crop_dummied!A12</f>
         <v>10</v>
       </c>
-      <c r="B12" s="30" t="str">
+      <c r="B12" s="23" t="str">
         <f>crop_dummied!B12</f>
         <v>荞麦</v>
       </c>
-      <c r="C12" s="30">
+      <c r="C12" s="23">
         <f>crop_dummied!C12</f>
         <v>1</v>
       </c>
-      <c r="D12" s="30">
+      <c r="D12" s="23">
         <f>crop_dummied!D12</f>
         <v>1</v>
       </c>
-      <c r="E12" s="30">
+      <c r="E12" s="23">
         <f>crop_dummied!E12</f>
         <v>1</v>
       </c>
-      <c r="F12" s="30">
+      <c r="F12" s="23">
         <f>crop_dummied!F12</f>
         <v>0</v>
       </c>
-      <c r="G12" s="30">
+      <c r="G12" s="23">
         <f>crop_dummied!G12</f>
         <v>0</v>
       </c>
-      <c r="H12" s="30">
+      <c r="H12" s="23">
         <f>crop_dummied!H12</f>
         <v>0</v>
       </c>
-      <c r="I12" s="30">
+      <c r="I12" s="23">
         <f>crop_dummied!I12</f>
         <v>0</v>
       </c>
-      <c r="J12" s="30">
+      <c r="J12" s="23">
         <f>crop_dummied!J12</f>
         <v>0</v>
       </c>
-      <c r="K12" s="30">
+      <c r="K12" s="23">
         <f>crop_dummied!K12</f>
         <v>0</v>
       </c>
-      <c r="L12" s="30">
+      <c r="L12" s="23">
         <f>crop_dummied!L12</f>
         <v>0</v>
       </c>
-      <c r="M12" s="30"/>
-      <c r="N12" s="30"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="31">
+      <c r="A13" s="24">
         <f>crop_dummied!A13</f>
         <v>11</v>
       </c>
-      <c r="B13" s="31" t="str">
+      <c r="B13" s="24" t="str">
         <f>crop_dummied!B13</f>
         <v>南瓜</v>
       </c>
-      <c r="C13" s="31">
+      <c r="C13" s="24">
         <f>crop_dummied!C13</f>
         <v>1</v>
       </c>
-      <c r="D13" s="31">
+      <c r="D13" s="24">
         <f>crop_dummied!D13</f>
         <v>1</v>
       </c>
-      <c r="E13" s="31">
+      <c r="E13" s="24">
         <f>crop_dummied!E13</f>
         <v>1</v>
       </c>
-      <c r="F13" s="31">
+      <c r="F13" s="24">
         <f>crop_dummied!F13</f>
         <v>0</v>
       </c>
-      <c r="G13" s="31">
+      <c r="G13" s="24">
         <f>crop_dummied!G13</f>
         <v>0</v>
       </c>
-      <c r="H13" s="31">
+      <c r="H13" s="24">
         <f>crop_dummied!H13</f>
         <v>0</v>
       </c>
-      <c r="I13" s="31">
+      <c r="I13" s="24">
         <f>crop_dummied!I13</f>
         <v>0</v>
       </c>
-      <c r="J13" s="31">
+      <c r="J13" s="24">
         <f>crop_dummied!J13</f>
         <v>0</v>
       </c>
-      <c r="K13" s="31">
+      <c r="K13" s="24">
         <f>crop_dummied!K13</f>
         <v>0</v>
       </c>
-      <c r="L13" s="31">
+      <c r="L13" s="24">
         <f>crop_dummied!L13</f>
         <v>0</v>
       </c>
-      <c r="M13" s="31"/>
-      <c r="N13" s="31"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="24"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="30">
+      <c r="A14" s="23">
         <f>crop_dummied!A14</f>
         <v>12</v>
       </c>
-      <c r="B14" s="30" t="str">
+      <c r="B14" s="23" t="str">
         <f>crop_dummied!B14</f>
         <v>红薯</v>
       </c>
-      <c r="C14" s="30">
+      <c r="C14" s="23">
         <f>crop_dummied!C14</f>
         <v>1</v>
       </c>
-      <c r="D14" s="30">
+      <c r="D14" s="23">
         <f>crop_dummied!D14</f>
         <v>1</v>
       </c>
-      <c r="E14" s="30">
+      <c r="E14" s="23">
         <f>crop_dummied!E14</f>
         <v>1</v>
       </c>
-      <c r="F14" s="30">
+      <c r="F14" s="23">
         <f>crop_dummied!F14</f>
         <v>0</v>
       </c>
-      <c r="G14" s="30">
+      <c r="G14" s="23">
         <f>crop_dummied!G14</f>
         <v>0</v>
       </c>
-      <c r="H14" s="30">
+      <c r="H14" s="23">
         <f>crop_dummied!H14</f>
         <v>0</v>
       </c>
-      <c r="I14" s="30">
+      <c r="I14" s="23">
         <f>crop_dummied!I14</f>
         <v>0</v>
       </c>
-      <c r="J14" s="30">
+      <c r="J14" s="23">
         <f>crop_dummied!J14</f>
         <v>0</v>
       </c>
-      <c r="K14" s="30">
+      <c r="K14" s="23">
         <f>crop_dummied!K14</f>
         <v>0</v>
       </c>
-      <c r="L14" s="30">
+      <c r="L14" s="23">
         <f>crop_dummied!L14</f>
         <v>0</v>
       </c>
-      <c r="M14" s="30"/>
-      <c r="N14" s="30"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="31">
+      <c r="A15" s="24">
         <f>crop_dummied!A15</f>
         <v>13</v>
       </c>
-      <c r="B15" s="31" t="str">
+      <c r="B15" s="24" t="str">
         <f>crop_dummied!B15</f>
         <v>莜麦</v>
       </c>
-      <c r="C15" s="31">
+      <c r="C15" s="24">
         <f>crop_dummied!C15</f>
         <v>1</v>
       </c>
-      <c r="D15" s="31">
+      <c r="D15" s="24">
         <f>crop_dummied!D15</f>
         <v>1</v>
       </c>
-      <c r="E15" s="31">
+      <c r="E15" s="24">
         <f>crop_dummied!E15</f>
         <v>1</v>
       </c>
-      <c r="F15" s="31">
+      <c r="F15" s="24">
         <f>crop_dummied!F15</f>
         <v>0</v>
       </c>
-      <c r="G15" s="31">
+      <c r="G15" s="24">
         <f>crop_dummied!G15</f>
         <v>0</v>
       </c>
-      <c r="H15" s="31">
+      <c r="H15" s="24">
         <f>crop_dummied!H15</f>
         <v>0</v>
       </c>
-      <c r="I15" s="31">
+      <c r="I15" s="24">
         <f>crop_dummied!I15</f>
         <v>0</v>
       </c>
-      <c r="J15" s="31">
+      <c r="J15" s="24">
         <f>crop_dummied!J15</f>
         <v>0</v>
       </c>
-      <c r="K15" s="31">
+      <c r="K15" s="24">
         <f>crop_dummied!K15</f>
         <v>0</v>
       </c>
-      <c r="L15" s="31">
+      <c r="L15" s="24">
         <f>crop_dummied!L15</f>
         <v>0</v>
       </c>
-      <c r="M15" s="31"/>
-      <c r="N15" s="31"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="24"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="30">
+      <c r="A16" s="23">
         <f>crop_dummied!A16</f>
         <v>14</v>
       </c>
-      <c r="B16" s="30" t="str">
+      <c r="B16" s="23" t="str">
         <f>crop_dummied!B16</f>
         <v>大麦</v>
       </c>
-      <c r="C16" s="30">
+      <c r="C16" s="23">
         <f>crop_dummied!C16</f>
         <v>1</v>
       </c>
-      <c r="D16" s="30">
+      <c r="D16" s="23">
         <f>crop_dummied!D16</f>
         <v>1</v>
       </c>
-      <c r="E16" s="30">
+      <c r="E16" s="23">
         <f>crop_dummied!E16</f>
         <v>1</v>
       </c>
-      <c r="F16" s="30">
+      <c r="F16" s="23">
         <f>crop_dummied!F16</f>
         <v>0</v>
       </c>
-      <c r="G16" s="30">
+      <c r="G16" s="23">
         <f>crop_dummied!G16</f>
         <v>0</v>
       </c>
-      <c r="H16" s="30">
+      <c r="H16" s="23">
         <f>crop_dummied!H16</f>
         <v>0</v>
       </c>
-      <c r="I16" s="30">
+      <c r="I16" s="23">
         <f>crop_dummied!I16</f>
         <v>0</v>
       </c>
-      <c r="J16" s="30">
+      <c r="J16" s="23">
         <f>crop_dummied!J16</f>
         <v>0</v>
       </c>
-      <c r="K16" s="30">
+      <c r="K16" s="23">
         <f>crop_dummied!K16</f>
         <v>0</v>
       </c>
-      <c r="L16" s="30">
+      <c r="L16" s="23">
         <f>crop_dummied!L16</f>
         <v>0</v>
       </c>
-      <c r="M16" s="30"/>
-      <c r="N16" s="30"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="31">
+      <c r="A17" s="24">
         <f>crop_dummied!A17</f>
         <v>15</v>
       </c>
-      <c r="B17" s="31" t="str">
+      <c r="B17" s="24" t="str">
         <f>crop_dummied!B17</f>
         <v>水稻</v>
       </c>
-      <c r="C17" s="31">
+      <c r="C17" s="24">
         <f>crop_dummied!C17</f>
         <v>0</v>
       </c>
-      <c r="D17" s="31">
+      <c r="D17" s="24">
         <f>crop_dummied!D17</f>
         <v>0</v>
       </c>
-      <c r="E17" s="31">
+      <c r="E17" s="24">
         <f>crop_dummied!E17</f>
         <v>0</v>
       </c>
-      <c r="F17" s="31">
+      <c r="F17" s="24">
         <f>crop_dummied!F17</f>
         <v>1</v>
       </c>
-      <c r="G17" s="31">
+      <c r="G17" s="24">
         <f>crop_dummied!G17</f>
         <v>0</v>
       </c>
-      <c r="H17" s="31">
+      <c r="H17" s="24">
         <f>crop_dummied!H17</f>
         <v>0</v>
       </c>
-      <c r="I17" s="31">
+      <c r="I17" s="24">
         <f>crop_dummied!I17</f>
         <v>0</v>
       </c>
-      <c r="J17" s="31">
+      <c r="J17" s="24">
         <f>crop_dummied!J17</f>
         <v>0</v>
       </c>
-      <c r="K17" s="31">
+      <c r="K17" s="24">
         <f>crop_dummied!K17</f>
         <v>0</v>
       </c>
-      <c r="L17" s="31">
+      <c r="L17" s="24">
         <f>crop_dummied!L17</f>
         <v>0</v>
       </c>
-      <c r="M17" s="31" t="s">
+      <c r="M17" s="24" t="s">
         <v>182</v>
       </c>
-      <c r="N17" s="31" t="s">
+      <c r="N17" s="24" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="30">
+      <c r="A18" s="23">
         <f>crop_dummied!A18</f>
         <v>16</v>
       </c>
-      <c r="B18" s="30" t="str">
+      <c r="B18" s="23" t="str">
         <f>crop_dummied!B18</f>
         <v>豇豆</v>
       </c>
-      <c r="C18" s="30">
+      <c r="C18" s="23">
         <f>crop_dummied!C18</f>
         <v>0</v>
       </c>
-      <c r="D18" s="30">
+      <c r="D18" s="23">
         <f>crop_dummied!D18</f>
         <v>0</v>
       </c>
-      <c r="E18" s="30">
+      <c r="E18" s="23">
         <f>crop_dummied!E18</f>
         <v>0</v>
       </c>
-      <c r="F18" s="30">
+      <c r="F18" s="23">
         <f>crop_dummied!F18</f>
         <v>0</v>
       </c>
-      <c r="G18" s="30">
+      <c r="G18" s="23">
         <f>crop_dummied!G18</f>
         <v>1</v>
       </c>
-      <c r="H18" s="30">
+      <c r="H18" s="23">
         <f>crop_dummied!H18</f>
         <v>0</v>
       </c>
-      <c r="I18" s="30">
+      <c r="I18" s="23">
         <f>crop_dummied!I18</f>
         <v>1</v>
       </c>
-      <c r="J18" s="30">
+      <c r="J18" s="23">
         <f>crop_dummied!J18</f>
         <v>0</v>
       </c>
-      <c r="K18" s="30">
+      <c r="K18" s="23">
         <f>crop_dummied!K18</f>
         <v>1</v>
       </c>
-      <c r="L18" s="30">
+      <c r="L18" s="23">
         <f>crop_dummied!L18</f>
         <v>1</v>
       </c>
-      <c r="M18" s="30"/>
-      <c r="N18" s="30"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="31">
+      <c r="A19" s="24">
         <f>crop_dummied!A19</f>
         <v>17</v>
       </c>
-      <c r="B19" s="31" t="str">
+      <c r="B19" s="24" t="str">
         <f>crop_dummied!B19</f>
         <v>刀豆</v>
       </c>
-      <c r="C19" s="31">
+      <c r="C19" s="24">
         <f>crop_dummied!C19</f>
         <v>0</v>
       </c>
-      <c r="D19" s="31">
+      <c r="D19" s="24">
         <f>crop_dummied!D19</f>
         <v>0</v>
       </c>
-      <c r="E19" s="31">
+      <c r="E19" s="24">
         <f>crop_dummied!E19</f>
         <v>0</v>
       </c>
-      <c r="F19" s="31">
+      <c r="F19" s="24">
         <f>crop_dummied!F19</f>
         <v>0</v>
       </c>
-      <c r="G19" s="31">
+      <c r="G19" s="24">
         <f>crop_dummied!G19</f>
         <v>1</v>
       </c>
-      <c r="H19" s="31">
+      <c r="H19" s="24">
         <f>crop_dummied!H19</f>
         <v>0</v>
       </c>
-      <c r="I19" s="31">
+      <c r="I19" s="24">
         <f>crop_dummied!I19</f>
         <v>1</v>
       </c>
-      <c r="J19" s="31">
+      <c r="J19" s="24">
         <f>crop_dummied!J19</f>
         <v>0</v>
       </c>
-      <c r="K19" s="31">
+      <c r="K19" s="24">
         <f>crop_dummied!K19</f>
         <v>1</v>
       </c>
-      <c r="L19" s="31">
+      <c r="L19" s="24">
         <f>crop_dummied!L19</f>
         <v>1</v>
       </c>
-      <c r="M19" s="31"/>
-      <c r="N19" s="31"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="24"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="30">
+      <c r="A20" s="23">
         <f>crop_dummied!A20</f>
         <v>18</v>
       </c>
-      <c r="B20" s="30" t="str">
+      <c r="B20" s="23" t="str">
         <f>crop_dummied!B20</f>
         <v>芸豆</v>
       </c>
-      <c r="C20" s="30">
+      <c r="C20" s="23">
         <f>crop_dummied!C20</f>
         <v>0</v>
       </c>
-      <c r="D20" s="30">
+      <c r="D20" s="23">
         <f>crop_dummied!D20</f>
         <v>0</v>
       </c>
-      <c r="E20" s="30">
+      <c r="E20" s="23">
         <f>crop_dummied!E20</f>
         <v>0</v>
       </c>
-      <c r="F20" s="30">
+      <c r="F20" s="23">
         <f>crop_dummied!F20</f>
         <v>0</v>
       </c>
-      <c r="G20" s="30">
+      <c r="G20" s="23">
         <f>crop_dummied!G20</f>
         <v>1</v>
       </c>
-      <c r="H20" s="30">
+      <c r="H20" s="23">
         <f>crop_dummied!H20</f>
         <v>0</v>
       </c>
-      <c r="I20" s="30">
+      <c r="I20" s="23">
         <f>crop_dummied!I20</f>
         <v>1</v>
       </c>
-      <c r="J20" s="30">
+      <c r="J20" s="23">
         <f>crop_dummied!J20</f>
         <v>0</v>
       </c>
-      <c r="K20" s="30">
+      <c r="K20" s="23">
         <f>crop_dummied!K20</f>
         <v>1</v>
       </c>
-      <c r="L20" s="30">
+      <c r="L20" s="23">
         <f>crop_dummied!L20</f>
         <v>1</v>
       </c>
-      <c r="M20" s="30"/>
-      <c r="N20" s="30"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="23"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="31">
+      <c r="A21" s="24">
         <f>crop_dummied!A21</f>
         <v>19</v>
       </c>
-      <c r="B21" s="31" t="str">
+      <c r="B21" s="24" t="str">
         <f>crop_dummied!B21</f>
         <v>土豆</v>
       </c>
-      <c r="C21" s="31">
+      <c r="C21" s="24">
         <f>crop_dummied!C21</f>
         <v>0</v>
       </c>
-      <c r="D21" s="31">
+      <c r="D21" s="24">
         <f>crop_dummied!D21</f>
         <v>0</v>
       </c>
-      <c r="E21" s="31">
+      <c r="E21" s="24">
         <f>crop_dummied!E21</f>
         <v>0</v>
       </c>
-      <c r="F21" s="31">
+      <c r="F21" s="24">
         <f>crop_dummied!F21</f>
         <v>0</v>
       </c>
-      <c r="G21" s="31">
+      <c r="G21" s="24">
         <f>crop_dummied!G21</f>
         <v>1</v>
       </c>
-      <c r="H21" s="31">
+      <c r="H21" s="24">
         <f>crop_dummied!H21</f>
         <v>0</v>
       </c>
-      <c r="I21" s="31">
+      <c r="I21" s="24">
         <f>crop_dummied!I21</f>
         <v>1</v>
       </c>
-      <c r="J21" s="31">
+      <c r="J21" s="24">
         <f>crop_dummied!J21</f>
         <v>0</v>
       </c>
-      <c r="K21" s="31">
+      <c r="K21" s="24">
         <f>crop_dummied!K21</f>
         <v>1</v>
       </c>
-      <c r="L21" s="31">
+      <c r="L21" s="24">
         <f>crop_dummied!L21</f>
         <v>1</v>
       </c>
-      <c r="M21" s="31"/>
-      <c r="N21" s="31"/>
+      <c r="M21" s="24"/>
+      <c r="N21" s="24"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="30">
+      <c r="A22" s="23">
         <f>crop_dummied!A22</f>
         <v>20</v>
       </c>
-      <c r="B22" s="30" t="str">
+      <c r="B22" s="23" t="str">
         <f>crop_dummied!B22</f>
         <v>西红柿</v>
       </c>
-      <c r="C22" s="30">
+      <c r="C22" s="23">
         <f>crop_dummied!C22</f>
         <v>0</v>
       </c>
-      <c r="D22" s="30">
+      <c r="D22" s="23">
         <f>crop_dummied!D22</f>
         <v>0</v>
       </c>
-      <c r="E22" s="30">
+      <c r="E22" s="23">
         <f>crop_dummied!E22</f>
         <v>0</v>
       </c>
-      <c r="F22" s="30">
+      <c r="F22" s="23">
         <f>crop_dummied!F22</f>
         <v>0</v>
       </c>
-      <c r="G22" s="30">
+      <c r="G22" s="23">
         <f>crop_dummied!G22</f>
         <v>1</v>
       </c>
-      <c r="H22" s="30">
+      <c r="H22" s="23">
         <f>crop_dummied!H22</f>
         <v>0</v>
       </c>
-      <c r="I22" s="30">
+      <c r="I22" s="23">
         <f>crop_dummied!I22</f>
         <v>1</v>
       </c>
-      <c r="J22" s="30">
+      <c r="J22" s="23">
         <f>crop_dummied!J22</f>
         <v>0</v>
       </c>
-      <c r="K22" s="30">
+      <c r="K22" s="23">
         <f>crop_dummied!K22</f>
         <v>1</v>
       </c>
-      <c r="L22" s="30">
+      <c r="L22" s="23">
         <f>crop_dummied!L22</f>
         <v>1</v>
       </c>
-      <c r="M22" s="30"/>
-      <c r="N22" s="30"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="23"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="31">
+      <c r="A23" s="24">
         <f>crop_dummied!A23</f>
         <v>21</v>
       </c>
-      <c r="B23" s="31" t="str">
+      <c r="B23" s="24" t="str">
         <f>crop_dummied!B23</f>
         <v>茄子</v>
       </c>
-      <c r="C23" s="31">
+      <c r="C23" s="24">
         <f>crop_dummied!C23</f>
         <v>0</v>
       </c>
-      <c r="D23" s="31">
+      <c r="D23" s="24">
         <f>crop_dummied!D23</f>
         <v>0</v>
       </c>
-      <c r="E23" s="31">
+      <c r="E23" s="24">
         <f>crop_dummied!E23</f>
         <v>0</v>
       </c>
-      <c r="F23" s="31">
+      <c r="F23" s="24">
         <f>crop_dummied!F23</f>
         <v>0</v>
       </c>
-      <c r="G23" s="31">
+      <c r="G23" s="24">
         <f>crop_dummied!G23</f>
         <v>1</v>
       </c>
-      <c r="H23" s="31">
+      <c r="H23" s="24">
         <f>crop_dummied!H23</f>
         <v>0</v>
       </c>
-      <c r="I23" s="31">
+      <c r="I23" s="24">
         <f>crop_dummied!I23</f>
         <v>1</v>
       </c>
-      <c r="J23" s="31">
+      <c r="J23" s="24">
         <f>crop_dummied!J23</f>
         <v>0</v>
       </c>
-      <c r="K23" s="31">
+      <c r="K23" s="24">
         <f>crop_dummied!K23</f>
         <v>1</v>
       </c>
-      <c r="L23" s="31">
+      <c r="L23" s="24">
         <f>crop_dummied!L23</f>
         <v>1</v>
       </c>
-      <c r="M23" s="31"/>
-      <c r="N23" s="31"/>
+      <c r="M23" s="24"/>
+      <c r="N23" s="24"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="30">
+      <c r="A24" s="23">
         <f>crop_dummied!A24</f>
         <v>22</v>
       </c>
-      <c r="B24" s="30" t="str">
+      <c r="B24" s="23" t="str">
         <f>crop_dummied!B24</f>
         <v xml:space="preserve">菠菜 </v>
       </c>
-      <c r="C24" s="30">
+      <c r="C24" s="23">
         <f>crop_dummied!C24</f>
         <v>0</v>
       </c>
-      <c r="D24" s="30">
+      <c r="D24" s="23">
         <f>crop_dummied!D24</f>
         <v>0</v>
       </c>
-      <c r="E24" s="30">
+      <c r="E24" s="23">
         <f>crop_dummied!E24</f>
         <v>0</v>
       </c>
-      <c r="F24" s="30">
+      <c r="F24" s="23">
         <f>crop_dummied!F24</f>
         <v>0</v>
       </c>
-      <c r="G24" s="30">
+      <c r="G24" s="23">
         <f>crop_dummied!G24</f>
         <v>1</v>
       </c>
-      <c r="H24" s="30">
+      <c r="H24" s="23">
         <f>crop_dummied!H24</f>
         <v>0</v>
       </c>
-      <c r="I24" s="30">
+      <c r="I24" s="23">
         <f>crop_dummied!I24</f>
         <v>1</v>
       </c>
-      <c r="J24" s="30">
+      <c r="J24" s="23">
         <f>crop_dummied!J24</f>
         <v>0</v>
       </c>
-      <c r="K24" s="30">
+      <c r="K24" s="23">
         <f>crop_dummied!K24</f>
         <v>1</v>
       </c>
-      <c r="L24" s="30">
+      <c r="L24" s="23">
         <f>crop_dummied!L24</f>
         <v>1</v>
       </c>
-      <c r="M24" s="30"/>
-      <c r="N24" s="30"/>
+      <c r="M24" s="23"/>
+      <c r="N24" s="23"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="31">
+      <c r="A25" s="24">
         <f>crop_dummied!A25</f>
         <v>23</v>
       </c>
-      <c r="B25" s="31" t="str">
+      <c r="B25" s="24" t="str">
         <f>crop_dummied!B25</f>
         <v>青椒</v>
       </c>
-      <c r="C25" s="31">
+      <c r="C25" s="24">
         <f>crop_dummied!C25</f>
         <v>0</v>
       </c>
-      <c r="D25" s="31">
+      <c r="D25" s="24">
         <f>crop_dummied!D25</f>
         <v>0</v>
       </c>
-      <c r="E25" s="31">
+      <c r="E25" s="24">
         <f>crop_dummied!E25</f>
         <v>0</v>
       </c>
-      <c r="F25" s="31">
+      <c r="F25" s="24">
         <f>crop_dummied!F25</f>
         <v>0</v>
       </c>
-      <c r="G25" s="31">
+      <c r="G25" s="24">
         <f>crop_dummied!G25</f>
         <v>1</v>
       </c>
-      <c r="H25" s="31">
+      <c r="H25" s="24">
         <f>crop_dummied!H25</f>
         <v>0</v>
       </c>
-      <c r="I25" s="31">
+      <c r="I25" s="24">
         <f>crop_dummied!I25</f>
         <v>1</v>
       </c>
-      <c r="J25" s="31">
+      <c r="J25" s="24">
         <f>crop_dummied!J25</f>
         <v>0</v>
       </c>
-      <c r="K25" s="31">
+      <c r="K25" s="24">
         <f>crop_dummied!K25</f>
         <v>1</v>
       </c>
-      <c r="L25" s="31">
+      <c r="L25" s="24">
         <f>crop_dummied!L25</f>
         <v>1</v>
       </c>
-      <c r="M25" s="31"/>
-      <c r="N25" s="31"/>
+      <c r="M25" s="24"/>
+      <c r="N25" s="24"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="30">
+      <c r="A26" s="23">
         <f>crop_dummied!A26</f>
         <v>24</v>
       </c>
-      <c r="B26" s="30" t="str">
+      <c r="B26" s="23" t="str">
         <f>crop_dummied!B26</f>
         <v>菜花</v>
       </c>
-      <c r="C26" s="30">
+      <c r="C26" s="23">
         <f>crop_dummied!C26</f>
         <v>0</v>
       </c>
-      <c r="D26" s="30">
+      <c r="D26" s="23">
         <f>crop_dummied!D26</f>
         <v>0</v>
       </c>
-      <c r="E26" s="30">
+      <c r="E26" s="23">
         <f>crop_dummied!E26</f>
         <v>0</v>
       </c>
-      <c r="F26" s="30">
+      <c r="F26" s="23">
         <f>crop_dummied!F26</f>
         <v>0</v>
       </c>
-      <c r="G26" s="30">
+      <c r="G26" s="23">
         <f>crop_dummied!G26</f>
         <v>1</v>
       </c>
-      <c r="H26" s="30">
+      <c r="H26" s="23">
         <f>crop_dummied!H26</f>
         <v>0</v>
       </c>
-      <c r="I26" s="30">
+      <c r="I26" s="23">
         <f>crop_dummied!I26</f>
         <v>1</v>
       </c>
-      <c r="J26" s="30">
+      <c r="J26" s="23">
         <f>crop_dummied!J26</f>
         <v>0</v>
       </c>
-      <c r="K26" s="30">
+      <c r="K26" s="23">
         <f>crop_dummied!K26</f>
         <v>1</v>
       </c>
-      <c r="L26" s="30">
+      <c r="L26" s="23">
         <f>crop_dummied!L26</f>
         <v>1</v>
       </c>
-      <c r="M26" s="30"/>
-      <c r="N26" s="30"/>
+      <c r="M26" s="23"/>
+      <c r="N26" s="23"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="31">
+      <c r="A27" s="24">
         <f>crop_dummied!A27</f>
         <v>25</v>
       </c>
-      <c r="B27" s="31" t="str">
+      <c r="B27" s="24" t="str">
         <f>crop_dummied!B27</f>
         <v>包菜</v>
       </c>
-      <c r="C27" s="31">
+      <c r="C27" s="24">
         <f>crop_dummied!C27</f>
         <v>0</v>
       </c>
-      <c r="D27" s="31">
+      <c r="D27" s="24">
         <f>crop_dummied!D27</f>
         <v>0</v>
       </c>
-      <c r="E27" s="31">
+      <c r="E27" s="24">
         <f>crop_dummied!E27</f>
         <v>0</v>
       </c>
-      <c r="F27" s="31">
+      <c r="F27" s="24">
         <f>crop_dummied!F27</f>
         <v>0</v>
       </c>
-      <c r="G27" s="31">
+      <c r="G27" s="24">
         <f>crop_dummied!G27</f>
         <v>1</v>
       </c>
-      <c r="H27" s="31">
+      <c r="H27" s="24">
         <f>crop_dummied!H27</f>
         <v>0</v>
       </c>
-      <c r="I27" s="31">
+      <c r="I27" s="24">
         <f>crop_dummied!I27</f>
         <v>1</v>
       </c>
-      <c r="J27" s="31">
+      <c r="J27" s="24">
         <f>crop_dummied!J27</f>
         <v>0</v>
       </c>
-      <c r="K27" s="31">
+      <c r="K27" s="24">
         <f>crop_dummied!K27</f>
         <v>1</v>
       </c>
-      <c r="L27" s="31">
+      <c r="L27" s="24">
         <f>crop_dummied!L27</f>
         <v>1</v>
       </c>
-      <c r="M27" s="31"/>
-      <c r="N27" s="31"/>
+      <c r="M27" s="24"/>
+      <c r="N27" s="24"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="30">
+      <c r="A28" s="23">
         <f>crop_dummied!A28</f>
         <v>26</v>
       </c>
-      <c r="B28" s="30" t="str">
+      <c r="B28" s="23" t="str">
         <f>crop_dummied!B28</f>
         <v>油麦菜</v>
       </c>
-      <c r="C28" s="30">
+      <c r="C28" s="23">
         <f>crop_dummied!C28</f>
         <v>0</v>
       </c>
-      <c r="D28" s="30">
+      <c r="D28" s="23">
         <f>crop_dummied!D28</f>
         <v>0</v>
       </c>
-      <c r="E28" s="30">
+      <c r="E28" s="23">
         <f>crop_dummied!E28</f>
         <v>0</v>
       </c>
-      <c r="F28" s="30">
+      <c r="F28" s="23">
         <f>crop_dummied!F28</f>
         <v>0</v>
       </c>
-      <c r="G28" s="30">
+      <c r="G28" s="23">
         <f>crop_dummied!G28</f>
         <v>1</v>
       </c>
-      <c r="H28" s="30">
+      <c r="H28" s="23">
         <f>crop_dummied!H28</f>
         <v>0</v>
       </c>
-      <c r="I28" s="30">
+      <c r="I28" s="23">
         <f>crop_dummied!I28</f>
         <v>1</v>
       </c>
-      <c r="J28" s="30">
+      <c r="J28" s="23">
         <f>crop_dummied!J28</f>
         <v>0</v>
       </c>
-      <c r="K28" s="30">
+      <c r="K28" s="23">
         <f>crop_dummied!K28</f>
         <v>1</v>
       </c>
-      <c r="L28" s="30">
+      <c r="L28" s="23">
         <f>crop_dummied!L28</f>
         <v>1</v>
       </c>
-      <c r="M28" s="30"/>
-      <c r="N28" s="30"/>
+      <c r="M28" s="23"/>
+      <c r="N28" s="23"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="31">
+      <c r="A29" s="24">
         <f>crop_dummied!A29</f>
         <v>27</v>
       </c>
-      <c r="B29" s="31" t="str">
+      <c r="B29" s="24" t="str">
         <f>crop_dummied!B29</f>
         <v>小青菜</v>
       </c>
-      <c r="C29" s="31">
+      <c r="C29" s="24">
         <f>crop_dummied!C29</f>
         <v>0</v>
       </c>
-      <c r="D29" s="31">
+      <c r="D29" s="24">
         <f>crop_dummied!D29</f>
         <v>0</v>
       </c>
-      <c r="E29" s="31">
+      <c r="E29" s="24">
         <f>crop_dummied!E29</f>
         <v>0</v>
       </c>
-      <c r="F29" s="31">
+      <c r="F29" s="24">
         <f>crop_dummied!F29</f>
         <v>0</v>
       </c>
-      <c r="G29" s="31">
+      <c r="G29" s="24">
         <f>crop_dummied!G29</f>
         <v>1</v>
       </c>
-      <c r="H29" s="31">
+      <c r="H29" s="24">
         <f>crop_dummied!H29</f>
         <v>0</v>
       </c>
-      <c r="I29" s="31">
+      <c r="I29" s="24">
         <f>crop_dummied!I29</f>
         <v>1</v>
       </c>
-      <c r="J29" s="31">
+      <c r="J29" s="24">
         <f>crop_dummied!J29</f>
         <v>0</v>
       </c>
-      <c r="K29" s="31">
+      <c r="K29" s="24">
         <f>crop_dummied!K29</f>
         <v>1</v>
       </c>
-      <c r="L29" s="31">
+      <c r="L29" s="24">
         <f>crop_dummied!L29</f>
         <v>1</v>
       </c>
-      <c r="M29" s="31"/>
-      <c r="N29" s="31"/>
+      <c r="M29" s="24"/>
+      <c r="N29" s="24"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="30">
+      <c r="A30" s="23">
         <f>crop_dummied!A30</f>
         <v>28</v>
       </c>
-      <c r="B30" s="30" t="str">
+      <c r="B30" s="23" t="str">
         <f>crop_dummied!B30</f>
         <v>黄瓜</v>
       </c>
-      <c r="C30" s="30">
+      <c r="C30" s="23">
         <f>crop_dummied!C30</f>
         <v>0</v>
       </c>
-      <c r="D30" s="30">
+      <c r="D30" s="23">
         <f>crop_dummied!D30</f>
         <v>0</v>
       </c>
-      <c r="E30" s="30">
+      <c r="E30" s="23">
         <f>crop_dummied!E30</f>
         <v>0</v>
       </c>
-      <c r="F30" s="30">
+      <c r="F30" s="23">
         <f>crop_dummied!F30</f>
         <v>0</v>
       </c>
-      <c r="G30" s="30">
+      <c r="G30" s="23">
         <f>crop_dummied!G30</f>
         <v>1</v>
       </c>
-      <c r="H30" s="30">
+      <c r="H30" s="23">
         <f>crop_dummied!H30</f>
         <v>0</v>
       </c>
-      <c r="I30" s="30">
+      <c r="I30" s="23">
         <f>crop_dummied!I30</f>
         <v>1</v>
       </c>
-      <c r="J30" s="30">
+      <c r="J30" s="23">
         <f>crop_dummied!J30</f>
         <v>0</v>
       </c>
-      <c r="K30" s="30">
+      <c r="K30" s="23">
         <f>crop_dummied!K30</f>
         <v>1</v>
       </c>
-      <c r="L30" s="30">
+      <c r="L30" s="23">
         <f>crop_dummied!L30</f>
         <v>1</v>
       </c>
-      <c r="M30" s="30"/>
-      <c r="N30" s="30"/>
+      <c r="M30" s="23"/>
+      <c r="N30" s="23"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="31">
+      <c r="A31" s="24">
         <f>crop_dummied!A31</f>
         <v>29</v>
       </c>
-      <c r="B31" s="31" t="str">
+      <c r="B31" s="24" t="str">
         <f>crop_dummied!B31</f>
         <v xml:space="preserve">生菜 </v>
       </c>
-      <c r="C31" s="31">
+      <c r="C31" s="24">
         <f>crop_dummied!C31</f>
         <v>0</v>
       </c>
-      <c r="D31" s="31">
+      <c r="D31" s="24">
         <f>crop_dummied!D31</f>
         <v>0</v>
       </c>
-      <c r="E31" s="31">
+      <c r="E31" s="24">
         <f>crop_dummied!E31</f>
         <v>0</v>
       </c>
-      <c r="F31" s="31">
+      <c r="F31" s="24">
         <f>crop_dummied!F31</f>
         <v>0</v>
       </c>
-      <c r="G31" s="31">
+      <c r="G31" s="24">
         <f>crop_dummied!G31</f>
         <v>1</v>
       </c>
-      <c r="H31" s="31">
+      <c r="H31" s="24">
         <f>crop_dummied!H31</f>
         <v>0</v>
       </c>
-      <c r="I31" s="31">
+      <c r="I31" s="24">
         <f>crop_dummied!I31</f>
         <v>1</v>
       </c>
-      <c r="J31" s="31">
+      <c r="J31" s="24">
         <f>crop_dummied!J31</f>
         <v>0</v>
       </c>
-      <c r="K31" s="31">
+      <c r="K31" s="24">
         <f>crop_dummied!K31</f>
         <v>1</v>
       </c>
-      <c r="L31" s="31">
+      <c r="L31" s="24">
         <f>crop_dummied!L31</f>
         <v>1</v>
       </c>
-      <c r="M31" s="31"/>
-      <c r="N31" s="31"/>
+      <c r="M31" s="24"/>
+      <c r="N31" s="24"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="30">
+      <c r="A32" s="23">
         <f>crop_dummied!A32</f>
         <v>30</v>
       </c>
-      <c r="B32" s="30" t="str">
+      <c r="B32" s="23" t="str">
         <f>crop_dummied!B32</f>
         <v>辣椒</v>
       </c>
-      <c r="C32" s="30">
+      <c r="C32" s="23">
         <f>crop_dummied!C32</f>
         <v>0</v>
       </c>
-      <c r="D32" s="30">
+      <c r="D32" s="23">
         <f>crop_dummied!D32</f>
         <v>0</v>
       </c>
-      <c r="E32" s="30">
+      <c r="E32" s="23">
         <f>crop_dummied!E32</f>
         <v>0</v>
       </c>
-      <c r="F32" s="30">
+      <c r="F32" s="23">
         <f>crop_dummied!F32</f>
         <v>0</v>
       </c>
-      <c r="G32" s="30">
+      <c r="G32" s="23">
         <f>crop_dummied!G32</f>
         <v>1</v>
       </c>
-      <c r="H32" s="30">
+      <c r="H32" s="23">
         <f>crop_dummied!H32</f>
         <v>0</v>
       </c>
-      <c r="I32" s="30">
+      <c r="I32" s="23">
         <f>crop_dummied!I32</f>
         <v>1</v>
       </c>
-      <c r="J32" s="30">
+      <c r="J32" s="23">
         <f>crop_dummied!J32</f>
         <v>0</v>
       </c>
-      <c r="K32" s="30">
+      <c r="K32" s="23">
         <f>crop_dummied!K32</f>
         <v>1</v>
       </c>
-      <c r="L32" s="30">
+      <c r="L32" s="23">
         <f>crop_dummied!L32</f>
         <v>1</v>
       </c>
-      <c r="M32" s="30"/>
-      <c r="N32" s="30"/>
+      <c r="M32" s="23"/>
+      <c r="N32" s="23"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="31">
+      <c r="A33" s="24">
         <f>crop_dummied!A33</f>
         <v>31</v>
       </c>
-      <c r="B33" s="31" t="str">
+      <c r="B33" s="24" t="str">
         <f>crop_dummied!B33</f>
         <v>空心菜</v>
       </c>
-      <c r="C33" s="31">
+      <c r="C33" s="24">
         <f>crop_dummied!C33</f>
         <v>0</v>
       </c>
-      <c r="D33" s="31">
+      <c r="D33" s="24">
         <f>crop_dummied!D33</f>
         <v>0</v>
       </c>
-      <c r="E33" s="31">
+      <c r="E33" s="24">
         <f>crop_dummied!E33</f>
         <v>0</v>
       </c>
-      <c r="F33" s="31">
+      <c r="F33" s="24">
         <f>crop_dummied!F33</f>
         <v>0</v>
       </c>
-      <c r="G33" s="31">
+      <c r="G33" s="24">
         <f>crop_dummied!G33</f>
         <v>1</v>
       </c>
-      <c r="H33" s="31">
+      <c r="H33" s="24">
         <f>crop_dummied!H33</f>
         <v>0</v>
       </c>
-      <c r="I33" s="31">
+      <c r="I33" s="24">
         <f>crop_dummied!I33</f>
         <v>1</v>
       </c>
-      <c r="J33" s="31">
+      <c r="J33" s="24">
         <f>crop_dummied!J33</f>
         <v>0</v>
       </c>
-      <c r="K33" s="31">
+      <c r="K33" s="24">
         <f>crop_dummied!K33</f>
         <v>1</v>
       </c>
-      <c r="L33" s="31">
+      <c r="L33" s="24">
         <f>crop_dummied!L33</f>
         <v>1</v>
       </c>
-      <c r="M33" s="31"/>
-      <c r="N33" s="31"/>
+      <c r="M33" s="24"/>
+      <c r="N33" s="24"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="30">
+      <c r="A34" s="23">
         <f>crop_dummied!A34</f>
         <v>32</v>
       </c>
-      <c r="B34" s="30" t="str">
+      <c r="B34" s="23" t="str">
         <f>crop_dummied!B34</f>
         <v>黄心菜</v>
       </c>
-      <c r="C34" s="30">
+      <c r="C34" s="23">
         <f>crop_dummied!C34</f>
         <v>0</v>
       </c>
-      <c r="D34" s="30">
+      <c r="D34" s="23">
         <f>crop_dummied!D34</f>
         <v>0</v>
       </c>
-      <c r="E34" s="30">
+      <c r="E34" s="23">
         <f>crop_dummied!E34</f>
         <v>0</v>
       </c>
-      <c r="F34" s="30">
+      <c r="F34" s="23">
         <f>crop_dummied!F34</f>
         <v>0</v>
       </c>
-      <c r="G34" s="30">
+      <c r="G34" s="23">
         <f>crop_dummied!G34</f>
         <v>1</v>
       </c>
-      <c r="H34" s="30">
+      <c r="H34" s="23">
         <f>crop_dummied!H34</f>
         <v>0</v>
       </c>
-      <c r="I34" s="30">
+      <c r="I34" s="23">
         <f>crop_dummied!I34</f>
         <v>1</v>
       </c>
-      <c r="J34" s="30">
+      <c r="J34" s="23">
         <f>crop_dummied!J34</f>
         <v>0</v>
       </c>
-      <c r="K34" s="30">
+      <c r="K34" s="23">
         <f>crop_dummied!K34</f>
         <v>1</v>
       </c>
-      <c r="L34" s="30">
+      <c r="L34" s="23">
         <f>crop_dummied!L34</f>
         <v>1</v>
       </c>
-      <c r="M34" s="30"/>
-      <c r="N34" s="30"/>
+      <c r="M34" s="23"/>
+      <c r="N34" s="23"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="31">
+      <c r="A35" s="24">
         <f>crop_dummied!A35</f>
         <v>33</v>
       </c>
-      <c r="B35" s="31" t="str">
+      <c r="B35" s="24" t="str">
         <f>crop_dummied!B35</f>
         <v>芹菜</v>
       </c>
-      <c r="C35" s="31">
+      <c r="C35" s="24">
         <f>crop_dummied!C35</f>
         <v>0</v>
       </c>
-      <c r="D35" s="31">
+      <c r="D35" s="24">
         <f>crop_dummied!D35</f>
         <v>0</v>
       </c>
-      <c r="E35" s="31">
+      <c r="E35" s="24">
         <f>crop_dummied!E35</f>
         <v>0</v>
       </c>
-      <c r="F35" s="31">
+      <c r="F35" s="24">
         <f>crop_dummied!F35</f>
         <v>0</v>
       </c>
-      <c r="G35" s="31">
+      <c r="G35" s="24">
         <f>crop_dummied!G35</f>
         <v>1</v>
       </c>
-      <c r="H35" s="31">
+      <c r="H35" s="24">
         <f>crop_dummied!H35</f>
         <v>0</v>
       </c>
-      <c r="I35" s="31">
+      <c r="I35" s="24">
         <f>crop_dummied!I35</f>
         <v>1</v>
       </c>
-      <c r="J35" s="31">
+      <c r="J35" s="24">
         <f>crop_dummied!J35</f>
         <v>0</v>
       </c>
-      <c r="K35" s="31">
+      <c r="K35" s="24">
         <f>crop_dummied!K35</f>
         <v>1</v>
       </c>
-      <c r="L35" s="31">
+      <c r="L35" s="24">
         <f>crop_dummied!L35</f>
         <v>1</v>
       </c>
-      <c r="M35" s="31"/>
-      <c r="N35" s="31"/>
+      <c r="M35" s="24"/>
+      <c r="N35" s="24"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="30">
+      <c r="A36" s="23">
         <f>crop_dummied!A36</f>
         <v>34</v>
       </c>
-      <c r="B36" s="30" t="str">
+      <c r="B36" s="23" t="str">
         <f>crop_dummied!B36</f>
         <v>大白菜</v>
       </c>
-      <c r="C36" s="30">
+      <c r="C36" s="23">
         <f>crop_dummied!C36</f>
         <v>0</v>
       </c>
-      <c r="D36" s="30">
+      <c r="D36" s="23">
         <f>crop_dummied!D36</f>
         <v>0</v>
       </c>
-      <c r="E36" s="30">
+      <c r="E36" s="23">
         <f>crop_dummied!E36</f>
         <v>0</v>
       </c>
-      <c r="F36" s="30">
+      <c r="F36" s="23">
         <f>crop_dummied!F36</f>
         <v>0</v>
       </c>
-      <c r="G36" s="30">
+      <c r="G36" s="23">
         <f>crop_dummied!G36</f>
         <v>0</v>
       </c>
-      <c r="H36" s="30">
+      <c r="H36" s="23">
         <f>crop_dummied!H36</f>
         <v>1</v>
       </c>
-      <c r="I36" s="30">
+      <c r="I36" s="23">
         <f>crop_dummied!I36</f>
         <v>0</v>
       </c>
-      <c r="J36" s="30">
+      <c r="J36" s="23">
         <f>crop_dummied!J36</f>
         <v>0</v>
       </c>
-      <c r="K36" s="30">
+      <c r="K36" s="23">
         <f>crop_dummied!K36</f>
         <v>0</v>
       </c>
-      <c r="L36" s="30">
+      <c r="L36" s="23">
         <f>crop_dummied!L36</f>
         <v>0</v>
       </c>
-      <c r="M36" s="30" t="s">
+      <c r="M36" s="23" t="s">
         <v>182</v>
       </c>
-      <c r="N36" s="30" t="s">
+      <c r="N36" s="23" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="31">
+      <c r="A37" s="24">
         <f>crop_dummied!A37</f>
         <v>35</v>
       </c>
-      <c r="B37" s="31" t="str">
+      <c r="B37" s="24" t="str">
         <f>crop_dummied!B37</f>
         <v>白萝卜</v>
       </c>
-      <c r="C37" s="31">
+      <c r="C37" s="24">
         <f>crop_dummied!C37</f>
         <v>0</v>
       </c>
-      <c r="D37" s="31">
+      <c r="D37" s="24">
         <f>crop_dummied!D37</f>
         <v>0</v>
       </c>
-      <c r="E37" s="31">
+      <c r="E37" s="24">
         <f>crop_dummied!E37</f>
         <v>0</v>
       </c>
-      <c r="F37" s="31">
+      <c r="F37" s="24">
         <f>crop_dummied!F37</f>
         <v>0</v>
       </c>
-      <c r="G37" s="31">
+      <c r="G37" s="24">
         <f>crop_dummied!G37</f>
         <v>0</v>
       </c>
-      <c r="H37" s="31">
+      <c r="H37" s="24">
         <f>crop_dummied!H37</f>
         <v>1</v>
       </c>
-      <c r="I37" s="31">
+      <c r="I37" s="24">
         <f>crop_dummied!I37</f>
         <v>0</v>
       </c>
-      <c r="J37" s="31">
+      <c r="J37" s="24">
         <f>crop_dummied!J37</f>
         <v>0</v>
       </c>
-      <c r="K37" s="31">
+      <c r="K37" s="24">
         <f>crop_dummied!K37</f>
         <v>0</v>
       </c>
-      <c r="L37" s="31">
+      <c r="L37" s="24">
         <f>crop_dummied!L37</f>
         <v>0</v>
       </c>
-      <c r="M37" s="31" t="s">
+      <c r="M37" s="24" t="s">
         <v>182</v>
       </c>
-      <c r="N37" s="31" t="s">
+      <c r="N37" s="24" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="30">
+      <c r="A38" s="23">
         <f>crop_dummied!A38</f>
         <v>36</v>
       </c>
-      <c r="B38" s="30" t="str">
+      <c r="B38" s="23" t="str">
         <f>crop_dummied!B38</f>
         <v>红萝卜</v>
       </c>
-      <c r="C38" s="30">
+      <c r="C38" s="23">
         <f>crop_dummied!C38</f>
         <v>0</v>
       </c>
-      <c r="D38" s="30">
+      <c r="D38" s="23">
         <f>crop_dummied!D38</f>
         <v>0</v>
       </c>
-      <c r="E38" s="30">
+      <c r="E38" s="23">
         <f>crop_dummied!E38</f>
         <v>0</v>
       </c>
-      <c r="F38" s="30">
+      <c r="F38" s="23">
         <f>crop_dummied!F38</f>
         <v>0</v>
       </c>
-      <c r="G38" s="30">
+      <c r="G38" s="23">
         <f>crop_dummied!G38</f>
         <v>0</v>
       </c>
-      <c r="H38" s="30">
+      <c r="H38" s="23">
         <f>crop_dummied!H38</f>
         <v>1</v>
       </c>
-      <c r="I38" s="30">
+      <c r="I38" s="23">
         <f>crop_dummied!I38</f>
         <v>0</v>
       </c>
-      <c r="J38" s="30">
+      <c r="J38" s="23">
         <f>crop_dummied!J38</f>
         <v>0</v>
       </c>
-      <c r="K38" s="30">
+      <c r="K38" s="23">
         <f>crop_dummied!K38</f>
         <v>0</v>
       </c>
-      <c r="L38" s="30">
+      <c r="L38" s="23">
         <f>crop_dummied!L38</f>
         <v>0</v>
       </c>
-      <c r="M38" s="30" t="s">
+      <c r="M38" s="23" t="s">
         <v>182</v>
       </c>
-      <c r="N38" s="30" t="s">
+      <c r="N38" s="23" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="31">
+      <c r="A39" s="24">
         <f>crop_dummied!A39</f>
         <v>37</v>
       </c>
-      <c r="B39" s="31" t="str">
+      <c r="B39" s="24" t="str">
         <f>crop_dummied!B39</f>
         <v>榆黄菇</v>
       </c>
-      <c r="C39" s="31">
+      <c r="C39" s="24">
         <f>crop_dummied!C39</f>
         <v>0</v>
       </c>
-      <c r="D39" s="31">
+      <c r="D39" s="24">
         <f>crop_dummied!D39</f>
         <v>0</v>
       </c>
-      <c r="E39" s="31">
+      <c r="E39" s="24">
         <f>crop_dummied!E39</f>
         <v>0</v>
       </c>
-      <c r="F39" s="31">
+      <c r="F39" s="24">
         <f>crop_dummied!F39</f>
         <v>0</v>
       </c>
-      <c r="G39" s="31">
+      <c r="G39" s="24">
         <f>crop_dummied!G39</f>
         <v>0</v>
       </c>
-      <c r="H39" s="31">
+      <c r="H39" s="24">
         <f>crop_dummied!H39</f>
         <v>0</v>
       </c>
-      <c r="I39" s="31">
+      <c r="I39" s="24">
         <f>crop_dummied!I39</f>
         <v>0</v>
       </c>
-      <c r="J39" s="31">
+      <c r="J39" s="24">
         <f>crop_dummied!J39</f>
         <v>1</v>
       </c>
-      <c r="K39" s="31">
+      <c r="K39" s="24">
         <f>crop_dummied!K39</f>
         <v>0</v>
       </c>
-      <c r="L39" s="31">
+      <c r="L39" s="24">
         <f>crop_dummied!L39</f>
         <v>0</v>
       </c>
-      <c r="M39" s="31" t="s">
+      <c r="M39" s="24" t="s">
         <v>182</v>
       </c>
-      <c r="N39" s="31" t="s">
+      <c r="N39" s="24" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="30">
+      <c r="A40" s="23">
         <f>crop_dummied!A40</f>
         <v>38</v>
       </c>
-      <c r="B40" s="30" t="str">
+      <c r="B40" s="23" t="str">
         <f>crop_dummied!B40</f>
         <v>香菇</v>
       </c>
-      <c r="C40" s="30">
+      <c r="C40" s="23">
         <f>crop_dummied!C40</f>
         <v>0</v>
       </c>
-      <c r="D40" s="30">
+      <c r="D40" s="23">
         <f>crop_dummied!D40</f>
         <v>0</v>
       </c>
-      <c r="E40" s="30">
+      <c r="E40" s="23">
         <f>crop_dummied!E40</f>
         <v>0</v>
       </c>
-      <c r="F40" s="30">
+      <c r="F40" s="23">
         <f>crop_dummied!F40</f>
         <v>0</v>
       </c>
-      <c r="G40" s="30">
+      <c r="G40" s="23">
         <f>crop_dummied!G40</f>
         <v>0</v>
       </c>
-      <c r="H40" s="30">
+      <c r="H40" s="23">
         <f>crop_dummied!H40</f>
         <v>0</v>
       </c>
-      <c r="I40" s="30">
+      <c r="I40" s="23">
         <f>crop_dummied!I40</f>
         <v>0</v>
       </c>
-      <c r="J40" s="30">
+      <c r="J40" s="23">
         <f>crop_dummied!J40</f>
         <v>1</v>
       </c>
-      <c r="K40" s="30">
+      <c r="K40" s="23">
         <f>crop_dummied!K40</f>
         <v>0</v>
       </c>
-      <c r="L40" s="30">
+      <c r="L40" s="23">
         <f>crop_dummied!L40</f>
         <v>0</v>
       </c>
-      <c r="M40" s="30" t="s">
+      <c r="M40" s="23" t="s">
         <v>182</v>
       </c>
-      <c r="N40" s="30" t="s">
+      <c r="N40" s="23" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="31">
+      <c r="A41" s="24">
         <f>crop_dummied!A41</f>
         <v>39</v>
       </c>
-      <c r="B41" s="31" t="str">
+      <c r="B41" s="24" t="str">
         <f>crop_dummied!B41</f>
         <v>白灵菇</v>
       </c>
-      <c r="C41" s="31">
+      <c r="C41" s="24">
         <f>crop_dummied!C41</f>
         <v>0</v>
       </c>
-      <c r="D41" s="31">
+      <c r="D41" s="24">
         <f>crop_dummied!D41</f>
         <v>0</v>
       </c>
-      <c r="E41" s="31">
+      <c r="E41" s="24">
         <f>crop_dummied!E41</f>
         <v>0</v>
       </c>
-      <c r="F41" s="31">
+      <c r="F41" s="24">
         <f>crop_dummied!F41</f>
         <v>0</v>
       </c>
-      <c r="G41" s="31">
+      <c r="G41" s="24">
         <f>crop_dummied!G41</f>
         <v>0</v>
       </c>
-      <c r="H41" s="31">
+      <c r="H41" s="24">
         <f>crop_dummied!H41</f>
         <v>0</v>
       </c>
-      <c r="I41" s="31">
+      <c r="I41" s="24">
         <f>crop_dummied!I41</f>
         <v>0</v>
       </c>
-      <c r="J41" s="31">
+      <c r="J41" s="24">
         <f>crop_dummied!J41</f>
         <v>1</v>
       </c>
-      <c r="K41" s="31">
+      <c r="K41" s="24">
         <f>crop_dummied!K41</f>
         <v>0</v>
       </c>
-      <c r="L41" s="31">
+      <c r="L41" s="24">
         <f>crop_dummied!L41</f>
         <v>0</v>
       </c>
-      <c r="M41" s="31" t="s">
+      <c r="M41" s="24" t="s">
         <v>182</v>
       </c>
-      <c r="N41" s="31" t="s">
+      <c r="N41" s="24" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="32">
+      <c r="A42" s="25">
         <f>crop_dummied!A42</f>
         <v>40</v>
       </c>
-      <c r="B42" s="32" t="str">
+      <c r="B42" s="25" t="str">
         <f>crop_dummied!B42</f>
         <v>羊肚菌</v>
       </c>
-      <c r="C42" s="32">
+      <c r="C42" s="25">
         <f>crop_dummied!C42</f>
         <v>0</v>
       </c>
-      <c r="D42" s="32">
+      <c r="D42" s="25">
         <f>crop_dummied!D42</f>
         <v>0</v>
       </c>
-      <c r="E42" s="32">
+      <c r="E42" s="25">
         <f>crop_dummied!E42</f>
         <v>0</v>
       </c>
-      <c r="F42" s="32">
+      <c r="F42" s="25">
         <f>crop_dummied!F42</f>
         <v>0</v>
       </c>
-      <c r="G42" s="32">
+      <c r="G42" s="25">
         <f>crop_dummied!G42</f>
         <v>0</v>
       </c>
-      <c r="H42" s="32">
+      <c r="H42" s="25">
         <f>crop_dummied!H42</f>
         <v>0</v>
       </c>
-      <c r="I42" s="32">
+      <c r="I42" s="25">
         <f>crop_dummied!I42</f>
         <v>0</v>
       </c>
-      <c r="J42" s="32">
+      <c r="J42" s="25">
         <f>crop_dummied!J42</f>
         <v>1</v>
       </c>
-      <c r="K42" s="32">
+      <c r="K42" s="25">
         <f>crop_dummied!K42</f>
         <v>0</v>
       </c>
-      <c r="L42" s="32">
+      <c r="L42" s="25">
         <f>crop_dummied!L42</f>
         <v>0</v>
       </c>
-      <c r="M42" s="32" t="s">
+      <c r="M42" s="25" t="s">
         <v>182</v>
       </c>
-      <c r="N42" s="32" t="s">
+      <c r="N42" s="25" t="s">
         <v>187</v>
       </c>
     </row>
@@ -9458,7 +9459,7 @@
   <dimension ref="A1:E91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
